--- a/Anastasia.xlsx
+++ b/Anastasia.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LibraryGIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C245D58-AADE-460D-9927-E4DD510EF1EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C980C2C5-D14C-45A4-992F-2F9DDFE66708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$E$7</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>№</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Дата</t>
   </si>
@@ -67,13 +67,43 @@
   </si>
   <si>
     <t>стр. 250</t>
+  </si>
+  <si>
+    <t>Лев Толстой</t>
+  </si>
+  <si>
+    <t>Война и мир</t>
+  </si>
+  <si>
+    <t>стр. 629</t>
+  </si>
+  <si>
+    <t>Александр Дюма</t>
+  </si>
+  <si>
+    <t>Три мушкетера</t>
+  </si>
+  <si>
+    <t>стр. 29</t>
+  </si>
+  <si>
+    <t>А. С. Пушкин</t>
+  </si>
+  <si>
+    <t>Евгений Онегин</t>
+  </si>
+  <si>
+    <t>стр. 73</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,13 +111,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -102,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -120,10 +169,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -405,36 +460,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
     <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="3" width="42.5546875" customWidth="1"/>
+    <col min="3" max="3" width="31.109375" customWidth="1"/>
     <col min="4" max="4" width="37.33203125" customWidth="1"/>
     <col min="5" max="5" width="24.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>10</v>
+      <c r="D1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -445,30 +500,30 @@
         <v>44492</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="5">
         <v>44510</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>8</v>
+      <c r="C3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -479,16 +534,120 @@
         <v>44573</v>
       </c>
       <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>44880</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
+      <c r="B6" s="4">
+        <v>45192</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>45216</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E7" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Anastasia.xlsx
+++ b/Anastasia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LibraryGIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C980C2C5-D14C-45A4-992F-2F9DDFE66708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3D837E-60E0-4FB8-A033-9C9C29338EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -139,7 +139,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -147,37 +147,59 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -462,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -476,175 +498,175 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
       <c r="B2" s="4">
         <v>44492</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="6">
         <v>44510</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
       <c r="B4" s="4">
         <v>44573</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="A5" s="12">
         <v>4</v>
       </c>
       <c r="B5" s="4">
         <v>44880</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="A6" s="12">
         <v>5</v>
       </c>
       <c r="B6" s="4">
         <v>45192</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="A7" s="12">
         <v>6</v>
       </c>
       <c r="B7" s="4">
         <v>45216</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E7" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
